--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Nppa</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H2">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I2">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J2">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2990286666666667</v>
+        <v>0.1036536666666667</v>
       </c>
       <c r="N2">
-        <v>0.8970860000000001</v>
+        <v>0.310961</v>
       </c>
       <c r="O2">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="P2">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="Q2">
-        <v>0.008026128765777777</v>
+        <v>0.01143227385766666</v>
       </c>
       <c r="R2">
-        <v>0.072235158892</v>
+        <v>0.102890464719</v>
       </c>
       <c r="S2">
-        <v>0.01173797530417727</v>
+        <v>0.01138429835095427</v>
       </c>
       <c r="T2">
-        <v>0.01173797530417727</v>
+        <v>0.01138429835095427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H3">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I3">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J3">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>3.022968</v>
       </c>
       <c r="O3">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994615</v>
       </c>
       <c r="P3">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994616</v>
       </c>
       <c r="Q3">
-        <v>0.02704615881066666</v>
+        <v>0.111137403208</v>
       </c>
       <c r="R3">
-        <v>0.243415429296</v>
+        <v>1.000236628872</v>
       </c>
       <c r="S3">
-        <v>0.03955420520364619</v>
+        <v>0.1106710153922438</v>
       </c>
       <c r="T3">
-        <v>0.03955420520364619</v>
+        <v>0.1106710153922438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H4">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I4">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J4">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.18572</v>
+        <v>0.1612806666666667</v>
       </c>
       <c r="N4">
-        <v>0.55716</v>
+        <v>0.483842</v>
       </c>
       <c r="O4">
-        <v>0.1244434597050755</v>
+        <v>0.1267341598016225</v>
       </c>
       <c r="P4">
-        <v>0.1244434597050755</v>
+        <v>0.1267341598016225</v>
       </c>
       <c r="Q4">
-        <v>0.004984848613333333</v>
+        <v>0.01778812856866666</v>
       </c>
       <c r="R4">
-        <v>0.04486363752</v>
+        <v>0.160093157118</v>
       </c>
       <c r="S4">
-        <v>0.007290193270740383</v>
+        <v>0.01771348073463366</v>
       </c>
       <c r="T4">
-        <v>0.007290193270740382</v>
+        <v>0.01771348073463366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +729,10 @@
         <v>0.111884</v>
       </c>
       <c r="I5">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J5">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2990286666666667</v>
+        <v>0.1036536666666667</v>
       </c>
       <c r="N5">
-        <v>0.8970860000000001</v>
+        <v>0.310961</v>
       </c>
       <c r="O5">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="P5">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="Q5">
-        <v>0.01115217444711111</v>
+        <v>0.003865728947111111</v>
       </c>
       <c r="R5">
-        <v>0.100369570024</v>
+        <v>0.034791560524</v>
       </c>
       <c r="S5">
-        <v>0.01630972440988263</v>
+        <v>0.003849506425908468</v>
       </c>
       <c r="T5">
-        <v>0.01630972440988264</v>
+        <v>0.003849506425908468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +791,10 @@
         <v>0.111884</v>
       </c>
       <c r="I6">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J6">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +809,10 @@
         <v>3.022968</v>
       </c>
       <c r="O6">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994615</v>
       </c>
       <c r="P6">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994616</v>
       </c>
       <c r="Q6">
         <v>0.03758019463466666</v>
@@ -818,10 +821,10 @@
         <v>0.338221751712</v>
       </c>
       <c r="S6">
-        <v>0.05495992020820086</v>
+        <v>0.03742248944824485</v>
       </c>
       <c r="T6">
-        <v>0.05495992020820086</v>
+        <v>0.03742248944824486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -850,40 +853,40 @@
         <v>0.111884</v>
       </c>
       <c r="I7">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J7">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.18572</v>
+        <v>0.1612806666666667</v>
       </c>
       <c r="N7">
-        <v>0.55716</v>
+        <v>0.483842</v>
       </c>
       <c r="O7">
-        <v>0.1244434597050755</v>
+        <v>0.1267341598016225</v>
       </c>
       <c r="P7">
-        <v>0.1244434597050755</v>
+        <v>0.1267341598016225</v>
       </c>
       <c r="Q7">
-        <v>0.006926365493333333</v>
+        <v>0.00601490870311111</v>
       </c>
       <c r="R7">
-        <v>0.06233728944</v>
+        <v>0.054134178328</v>
       </c>
       <c r="S7">
-        <v>0.01012960413183375</v>
+        <v>0.005989667154802065</v>
       </c>
       <c r="T7">
-        <v>0.01012960413183375</v>
+        <v>0.005989667154802065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,10 +915,10 @@
         <v>1.182103</v>
       </c>
       <c r="I8">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J8">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2990286666666667</v>
+        <v>0.1036536666666667</v>
       </c>
       <c r="N8">
-        <v>0.8970860000000001</v>
+        <v>0.310961</v>
       </c>
       <c r="O8">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="P8">
-        <v>0.2003670139510866</v>
+        <v>0.08145093039891602</v>
       </c>
       <c r="Q8">
-        <v>0.1178275613175556</v>
+        <v>0.04084310344255555</v>
       </c>
       <c r="R8">
-        <v>1.060448051858</v>
+        <v>0.367587930983</v>
       </c>
       <c r="S8">
-        <v>0.1723193142370267</v>
+        <v>0.04067170546803545</v>
       </c>
       <c r="T8">
-        <v>0.1723193142370267</v>
+        <v>0.04067170546803545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,10 +977,10 @@
         <v>1.182103</v>
       </c>
       <c r="I9">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J9">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +995,10 @@
         <v>3.022968</v>
       </c>
       <c r="O9">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994615</v>
       </c>
       <c r="P9">
-        <v>0.675189526343838</v>
+        <v>0.7918149097994616</v>
       </c>
       <c r="Q9">
         <v>0.3970510601893333</v>
@@ -1004,10 +1007,10 @@
         <v>3.573459541704</v>
       </c>
       <c r="S9">
-        <v>0.580675400931991</v>
+        <v>0.3953848364756229</v>
       </c>
       <c r="T9">
-        <v>0.5806754009319909</v>
+        <v>0.395384836475623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,40 +1039,226 @@
         <v>1.182103</v>
       </c>
       <c r="I10">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J10">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1612806666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.483842</v>
+      </c>
+      <c r="O10">
+        <v>0.1267341598016225</v>
+      </c>
+      <c r="P10">
+        <v>0.1267341598016225</v>
+      </c>
+      <c r="Q10">
+        <v>0.06355011996955556</v>
+      </c>
+      <c r="R10">
+        <v>0.571951079726</v>
+      </c>
+      <c r="S10">
+        <v>0.06328343206082181</v>
+      </c>
+      <c r="T10">
+        <v>0.06328343206082181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.742465</v>
+      </c>
+      <c r="I11">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J11">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1036536666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.310961</v>
+      </c>
+      <c r="O11">
+        <v>0.08145093039891602</v>
+      </c>
+      <c r="P11">
+        <v>0.08145093039891602</v>
+      </c>
+      <c r="Q11">
+        <v>0.02565307320722222</v>
+      </c>
+      <c r="R11">
+        <v>0.230877658865</v>
+      </c>
+      <c r="S11">
+        <v>0.02554542015401783</v>
+      </c>
+      <c r="T11">
+        <v>0.02554542015401783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.742465</v>
+      </c>
+      <c r="I12">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J12">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.18572</v>
-      </c>
-      <c r="N10">
-        <v>0.55716</v>
-      </c>
-      <c r="O10">
-        <v>0.1244434597050755</v>
-      </c>
-      <c r="P10">
-        <v>0.1244434597050755</v>
-      </c>
-      <c r="Q10">
-        <v>0.07318005638666668</v>
-      </c>
-      <c r="R10">
-        <v>0.65862050748</v>
-      </c>
-      <c r="S10">
-        <v>0.1070236623025014</v>
-      </c>
-      <c r="T10">
-        <v>0.1070236623025014</v>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.007656</v>
+      </c>
+      <c r="N12">
+        <v>3.022968</v>
+      </c>
+      <c r="O12">
+        <v>0.7918149097994615</v>
+      </c>
+      <c r="P12">
+        <v>0.7918149097994616</v>
+      </c>
+      <c r="Q12">
+        <v>0.2493831040133333</v>
+      </c>
+      <c r="R12">
+        <v>2.24444793612</v>
+      </c>
+      <c r="S12">
+        <v>0.2483365684833499</v>
+      </c>
+      <c r="T12">
+        <v>0.2483365684833499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.742465</v>
+      </c>
+      <c r="I13">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J13">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1612806666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.483842</v>
+      </c>
+      <c r="O13">
+        <v>0.1267341598016225</v>
+      </c>
+      <c r="P13">
+        <v>0.1267341598016225</v>
+      </c>
+      <c r="Q13">
+        <v>0.03991508339222222</v>
+      </c>
+      <c r="R13">
+        <v>0.35923575053</v>
+      </c>
+      <c r="S13">
+        <v>0.03974757985136495</v>
+      </c>
+      <c r="T13">
+        <v>0.03974757985136495</v>
       </c>
     </row>
   </sheetData>
